--- a/Excel/VLOOKUP 1.xlsx
+++ b/Excel/VLOOKUP 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assignment of Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Documents\GitHub\TOPS-Assignment-\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D105270F-0AE9-410E-B645-47308C50D52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B82DB7-1C1E-45A4-8AE8-AE0E678E94B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184D8B87-3A81-492A-ADEF-EEF98CC70539}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
